--- a/aap_reviewed.xlsx
+++ b/aap_reviewed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arctor\Desktop\GitStuff\R\R-Artigiani\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itsrizzoli-my.sharepoint.com/personal/william_santeramo_itsrizzoli_it/Documents/Documenti/UFS/07 programmazione R/PROGETTO/R-Artigiani/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DF1071-D720-404B-9478-776184DB05B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{E9DF1071-D720-404B-9478-776184DB05B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7DCF6E5-2ADB-4C66-9F78-B86CF0DD5535}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -320,7 +320,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -625,47 +625,48 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="164.29296875" customWidth="1"/>
+    <col min="3" max="3" width="164.26953125" customWidth="1"/>
+    <col min="4" max="6" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>659</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
@@ -673,22 +674,22 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1133</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
@@ -696,45 +697,45 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1032</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1158</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
@@ -742,45 +743,45 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>253</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>426</v>
       </c>
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -788,22 +789,22 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>597</v>
       </c>
       <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
@@ -811,22 +812,22 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>478</v>
       </c>
       <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
@@ -834,22 +835,22 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>288</v>
       </c>
       <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
@@ -857,45 +858,45 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>956</v>
       </c>
       <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>716</v>
       </c>
       <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
@@ -903,22 +904,22 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>379</v>
       </c>
       <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
@@ -926,22 +927,22 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>49</v>
       </c>
       <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
@@ -949,22 +950,22 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1060</v>
       </c>
       <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
@@ -972,22 +973,22 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1150</v>
       </c>
       <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
@@ -995,22 +996,22 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>140</v>
       </c>
       <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
@@ -1018,22 +1019,22 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>221</v>
       </c>
       <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
@@ -1041,45 +1042,45 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>593</v>
       </c>
       <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19">
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1067</v>
       </c>
       <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
@@ -1087,45 +1088,45 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>994</v>
       </c>
       <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>655</v>
       </c>
       <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
@@ -1133,22 +1134,22 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>637</v>
       </c>
       <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
         <v>30</v>
       </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
@@ -1156,45 +1157,45 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>450</v>
       </c>
       <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
         <v>31</v>
       </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24">
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>311</v>
       </c>
       <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
         <v>32</v>
       </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
@@ -1202,22 +1203,22 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>982</v>
       </c>
       <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
@@ -1225,45 +1226,45 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>343</v>
       </c>
       <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G27">
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>415</v>
       </c>
       <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
         <v>35</v>
       </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
@@ -1271,22 +1272,22 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>46</v>
       </c>
       <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
         <v>36</v>
       </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
@@ -1294,45 +1295,45 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>941</v>
       </c>
       <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
         <v>37</v>
       </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
       <c r="D30" t="s">
         <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G30">
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>971</v>
       </c>
       <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
         <v>38</v>
       </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
@@ -1340,45 +1341,45 @@
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>812</v>
       </c>
       <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
         <v>39</v>
       </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>624</v>
       </c>
       <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
         <v>40</v>
       </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
@@ -1386,22 +1387,22 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>470</v>
       </c>
       <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
         <v>41</v>
       </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
@@ -1409,22 +1410,22 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>934</v>
       </c>
       <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
         <v>42</v>
       </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
       <c r="D35" t="s">
         <v>11</v>
       </c>
@@ -1432,22 +1433,22 @@
         <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G35">
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="286.7" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:7" ht="290" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>248</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
       <c r="D36" t="s">
         <v>11</v>
       </c>
@@ -1455,22 +1456,22 @@
         <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G36">
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>371</v>
       </c>
       <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
         <v>44</v>
       </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
@@ -1478,22 +1479,22 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>547</v>
       </c>
       <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
         <v>45</v>
       </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
@@ -1501,22 +1502,22 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>390</v>
       </c>
       <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
         <v>46</v>
       </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
@@ -1524,22 +1525,22 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>298</v>
       </c>
       <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
         <v>47</v>
       </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
       <c r="D40" t="s">
         <v>11</v>
       </c>
@@ -1547,22 +1548,22 @@
         <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G40">
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>907</v>
       </c>
       <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
         <v>48</v>
       </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
@@ -1570,68 +1571,68 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2704</v>
       </c>
       <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
         <v>49</v>
       </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1667</v>
       </c>
       <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
         <v>51</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>52</v>
       </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
       <c r="E43" t="s">
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>3988</v>
       </c>
       <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
         <v>53</v>
       </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
       <c r="D44" t="s">
         <v>7</v>
       </c>
@@ -1639,45 +1640,45 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>3027</v>
       </c>
       <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
         <v>54</v>
       </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>3491</v>
       </c>
       <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
         <v>55</v>
       </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
       <c r="D46" t="s">
         <v>7</v>
       </c>
@@ -1685,22 +1686,22 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>3911</v>
       </c>
       <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
         <v>56</v>
       </c>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
       <c r="D47" t="s">
         <v>7</v>
       </c>
@@ -1708,137 +1709,137 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2628</v>
       </c>
       <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
         <v>57</v>
       </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>4122</v>
       </c>
       <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
         <v>58</v>
       </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G49">
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2709</v>
       </c>
       <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
         <v>59</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>52</v>
       </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
       <c r="E50" t="s">
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>3439</v>
       </c>
       <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
         <v>60</v>
       </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G51">
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2254</v>
       </c>
       <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
         <v>61</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>52</v>
       </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
       <c r="E52" t="s">
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2668</v>
       </c>
       <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
         <v>62</v>
       </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
       <c r="D53" t="s">
         <v>7</v>
       </c>
@@ -1846,45 +1847,45 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1763</v>
       </c>
       <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
         <v>63</v>
       </c>
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1445</v>
       </c>
       <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
         <v>64</v>
       </c>
-      <c r="C55" t="s">
-        <v>7</v>
-      </c>
       <c r="D55" t="s">
         <v>7</v>
       </c>
@@ -1892,45 +1893,45 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2154</v>
       </c>
       <c r="B56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" t="s">
         <v>65</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>52</v>
       </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
       <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
         <v>52</v>
-      </c>
-      <c r="F56" t="s">
-        <v>50</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>3256</v>
       </c>
       <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" t="s">
         <v>66</v>
       </c>
-      <c r="C57" t="s">
-        <v>7</v>
-      </c>
       <c r="D57" t="s">
         <v>7</v>
       </c>
@@ -1938,22 +1939,22 @@
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1383</v>
       </c>
       <c r="B58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" t="s">
         <v>67</v>
       </c>
-      <c r="C58" t="s">
-        <v>7</v>
-      </c>
       <c r="D58" t="s">
         <v>7</v>
       </c>
@@ -1961,22 +1962,22 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1309</v>
       </c>
       <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" t="s">
         <v>68</v>
       </c>
-      <c r="C59" t="s">
-        <v>7</v>
-      </c>
       <c r="D59" t="s">
         <v>7</v>
       </c>
@@ -1984,22 +1985,22 @@
         <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>3421</v>
       </c>
       <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" t="s">
         <v>69</v>
       </c>
-      <c r="C60" t="s">
-        <v>7</v>
-      </c>
       <c r="D60" t="s">
         <v>7</v>
       </c>
@@ -2007,30 +2008,30 @@
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2105</v>
       </c>
       <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" t="s">
         <v>70</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>52</v>
       </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
       <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
         <v>52</v>
-      </c>
-      <c r="F61" t="s">
-        <v>50</v>
       </c>
       <c r="G61">
         <v>0</v>
